--- a/biology/Zoologie/Deutsche_Ornithologen-Gesellschaft/Deutsche_Ornithologen-Gesellschaft.xlsx
+++ b/biology/Zoologie/Deutsche_Ornithologen-Gesellschaft/Deutsche_Ornithologen-Gesellschaft.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Deutsche Ornithologen-Gesellschaft (littéralement: société allemande des ornithologues) est une des plus anciennes sociétés scientifiques du monde puisqu'elle a été fondée en octobre 1850 à Leipzig par Johann Friedrich Naumann, August Carl Eduard Baldamus (de) (1812–1893) et Eugen Ferdinand von Homeyer. Le Journal für Ornithologie est son organe de presse depuis 1854.
 Elle attribue régulièrement un prix, le Erwin-Stresemann-Preis, en l'honneur d'Erwin Stresemann.
@@ -512,7 +524,9 @@
           <t>Quelques membres fameux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bernard Altum (1824-1900)
 Wilhelm Blasius (1845-1912)
